--- a/Chapter 3.xlsx
+++ b/Chapter 3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10380"/>
+    <workbookView windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="85">
   <si>
     <t>Chapter 3</t>
   </si>
@@ -180,6 +180,108 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>3-4A</t>
+  </si>
+  <si>
+    <t>Income Statement</t>
+  </si>
+  <si>
+    <t>Balance sheet</t>
+  </si>
+  <si>
+    <t>Consulting fees earned</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>Depre expense - office equipment</t>
+  </si>
+  <si>
+    <t>Office supplies</t>
+  </si>
+  <si>
+    <t>Interest expense</t>
+  </si>
+  <si>
+    <t>Office equipment</t>
+  </si>
+  <si>
+    <t>Total expense</t>
+  </si>
+  <si>
+    <t>Liabilities &amp; Equity</t>
+  </si>
+  <si>
+    <t>Net income</t>
+  </si>
+  <si>
+    <t>Interest payable</t>
+  </si>
+  <si>
+    <t>Unearned consulting fees</t>
+  </si>
+  <si>
+    <t>Statement owner's equity</t>
+  </si>
+  <si>
+    <t>Long-term notes payable</t>
+  </si>
+  <si>
+    <t>owner capital</t>
+  </si>
+  <si>
+    <t>capital</t>
+  </si>
+  <si>
+    <t>net income</t>
+  </si>
+  <si>
+    <t>owner withdrawals</t>
+  </si>
+  <si>
+    <t>owner' equity</t>
+  </si>
+  <si>
+    <t>3-5A</t>
+  </si>
+  <si>
+    <t>Income statement</t>
+  </si>
+  <si>
+    <t>Fee earned</t>
+  </si>
+  <si>
+    <t>Interest earnes</t>
+  </si>
+  <si>
+    <t>Depreciation expense - automobiles</t>
+  </si>
+  <si>
+    <t>Interest receivable</t>
+  </si>
+  <si>
+    <t>Depreciation expense - Equipment</t>
+  </si>
+  <si>
+    <t>Notes receivable</t>
+  </si>
+  <si>
+    <t>Wages expense</t>
+  </si>
+  <si>
+    <t>Automobiles</t>
+  </si>
+  <si>
+    <t>Accumulated depreciation - Automobiles</t>
+  </si>
+  <si>
+    <t>Repairs expense - automobiles</t>
+  </si>
+  <si>
+    <t>Land</t>
   </si>
 </sst>
 </file>
@@ -887,17 +989,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -936,55 +1032,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1002,10 +1056,64 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1288,15 +1396,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>5080</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>177165</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>80010</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>72390</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1313,8 +1421,50 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5080" y="5263515"/>
-          <a:ext cx="3961130" cy="3261360"/>
+          <a:off x="9525" y="5549265"/>
+          <a:ext cx="4276725" cy="3997960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>20955</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="16846550"/>
+          <a:ext cx="5684520" cy="4772660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1588,13 +1738,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BS16394"/>
+  <dimension ref="A1:BS16396"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="E132" sqref="E132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.02857142857143" defaultRowHeight="15"/>
+  <cols>
+    <col min="8" max="8" width="12.8571428571429"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1606,19 +1759,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" ht="15.75"/>
     <row r="4" spans="1:5">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -1628,30 +1782,30 @@
         <f>12400+3000-2640</f>
         <v>12760</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="8"/>
+      <c r="A6" s="6"/>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <f>12400+3000-2640</f>
         <v>12760</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="8"/>
-      <c r="E8" s="9"/>
+      <c r="A8" s="6"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -1660,19 +1814,19 @@
       <c r="D9">
         <v>4200</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="8"/>
+      <c r="A10" s="6"/>
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="7">
         <v>4200</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
@@ -1681,19 +1835,19 @@
       <c r="D11">
         <v>27000</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="8"/>
+      <c r="A12" s="6"/>
       <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="7">
         <v>27000</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
@@ -1702,19 +1856,19 @@
       <c r="D13">
         <v>2400</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="8"/>
+      <c r="A14" s="6"/>
       <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="7">
         <v>2400</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B15" t="s">
@@ -1723,32 +1877,33 @@
       <c r="D15">
         <v>4350</v>
       </c>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" ht="15" spans="1:5">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11" t="s">
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" ht="15.75" spans="1:5">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10">
         <v>4350</v>
       </c>
     </row>
+    <row r="19" ht="15.75"/>
     <row r="20" spans="1:5">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6" t="s">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B21" t="s">
@@ -1757,33 +1912,33 @@
       <c r="D21">
         <v>6300</v>
       </c>
-      <c r="E21" s="9"/>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="8"/>
+      <c r="A22" s="6"/>
       <c r="B22" t="s">
         <v>10</v>
       </c>
       <c r="D22">
         <v>4200</v>
       </c>
-      <c r="E22" s="9"/>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="8"/>
+      <c r="A23" s="6"/>
       <c r="B23" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="7">
         <v>10500</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="8"/>
-      <c r="E24" s="9"/>
+      <c r="A24" s="6"/>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B25" t="s">
@@ -1792,25 +1947,25 @@
       <c r="D25">
         <v>4800</v>
       </c>
-      <c r="E25" s="9"/>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="8"/>
+      <c r="A26" s="6"/>
       <c r="B26" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="7">
         <v>2400</v>
       </c>
     </row>
-    <row r="27" ht="15" spans="1:5">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11" t="s">
+    <row r="27" ht="15.75" spans="1:5">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="12">
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="10">
         <v>2400</v>
       </c>
     </row>
@@ -1819,949 +1974,942 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" spans="1:71">
-      <c r="A50" s="13" t="s">
+    <row r="52" ht="15.75"/>
+    <row r="53" s="1" customFormat="1" spans="1:71">
+      <c r="A53" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="15" t="s">
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="15" t="s">
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="15" t="s">
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="K50" s="14"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="15" t="s">
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="N50" s="14"/>
-      <c r="O50" s="14"/>
-      <c r="P50" s="15" t="s">
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q50" s="14"/>
-      <c r="R50" s="14"/>
-      <c r="S50" s="15" t="s">
+      <c r="Q53" s="12"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="T50" s="14"/>
-      <c r="U50" s="14"/>
-      <c r="V50" s="15" t="s">
+      <c r="T53" s="12"/>
+      <c r="U53" s="12"/>
+      <c r="V53" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="W50" s="14"/>
-      <c r="X50" s="14"/>
-      <c r="Y50" s="15" t="s">
+      <c r="W53" s="12"/>
+      <c r="X53" s="12"/>
+      <c r="Y53" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="Z50" s="14"/>
-      <c r="AA50" s="14"/>
-      <c r="AB50" s="15" t="s">
+      <c r="Z53" s="12"/>
+      <c r="AA53" s="12"/>
+      <c r="AB53" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="AC50" s="14"/>
-      <c r="AD50" s="14"/>
-      <c r="AE50" s="15" t="s">
+      <c r="AC53" s="12"/>
+      <c r="AD53" s="12"/>
+      <c r="AE53" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AF50" s="14"/>
-      <c r="AG50" s="14"/>
-      <c r="AH50" s="15" t="s">
+      <c r="AF53" s="12"/>
+      <c r="AG53" s="12"/>
+      <c r="AH53" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="AI50" s="14"/>
-      <c r="AJ50" s="14"/>
-      <c r="AK50" s="15" t="s">
+      <c r="AI53" s="12"/>
+      <c r="AJ53" s="12"/>
+      <c r="AK53" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="AL50" s="14"/>
-      <c r="AM50" s="14"/>
-      <c r="AN50" s="15" t="s">
+      <c r="AL53" s="12"/>
+      <c r="AM53" s="12"/>
+      <c r="AN53" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="AO50" s="14"/>
-      <c r="AP50" s="14"/>
-      <c r="AQ50" s="15" t="s">
+      <c r="AO53" s="12"/>
+      <c r="AP53" s="12"/>
+      <c r="AQ53" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="AR50" s="14"/>
-      <c r="AS50" s="14"/>
-      <c r="AT50" s="15" t="s">
+      <c r="AR53" s="12"/>
+      <c r="AS53" s="12"/>
+      <c r="AT53" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="AU50" s="14"/>
-      <c r="AV50" s="14"/>
-      <c r="AW50" s="15" t="s">
+      <c r="AU53" s="12"/>
+      <c r="AV53" s="12"/>
+      <c r="AW53" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AX50" s="14"/>
-      <c r="AY50" s="14"/>
-      <c r="AZ50" s="15" t="s">
+      <c r="AX53" s="12"/>
+      <c r="AY53" s="12"/>
+      <c r="AZ53" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="BA50" s="14"/>
-      <c r="BB50" s="14"/>
-      <c r="BC50" s="15" t="s">
+      <c r="BA53" s="12"/>
+      <c r="BB53" s="12"/>
+      <c r="BC53" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="BD50" s="14"/>
-      <c r="BE50" s="14"/>
-      <c r="BF50" s="15" t="s">
+      <c r="BD53" s="12"/>
+      <c r="BE53" s="12"/>
+      <c r="BF53" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="BG50" s="14"/>
-      <c r="BH50" s="14"/>
-      <c r="BI50" s="15" t="s">
+      <c r="BG53" s="12"/>
+      <c r="BH53" s="12"/>
+      <c r="BI53" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="BJ50" s="14"/>
-      <c r="BK50" s="14"/>
-      <c r="BL50" s="15" t="s">
+      <c r="BJ53" s="12"/>
+      <c r="BK53" s="12"/>
+      <c r="BL53" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="BM50" s="14"/>
-      <c r="BN50" s="14"/>
-      <c r="BO50" s="15" t="s">
+      <c r="BM53" s="12"/>
+      <c r="BN53" s="12"/>
+      <c r="BO53" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="BP50" s="14"/>
-      <c r="BQ50" s="14"/>
-      <c r="BR50" s="15" t="s">
+      <c r="BP53" s="12"/>
+      <c r="BQ53" s="12"/>
+      <c r="BR53" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="BS50" s="30"/>
-    </row>
-    <row r="51" s="2" customFormat="1" spans="1:71">
-      <c r="A51" s="16" t="s">
+      <c r="BS53" s="16"/>
+    </row>
+    <row r="54" s="2" customFormat="1" spans="1:71">
+      <c r="A54" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="G54" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="H54" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J51" s="2" t="s">
+      <c r="J54" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="K54" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M51" s="2" t="s">
+      <c r="M54" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N51" s="2" t="s">
+      <c r="N54" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P51" s="2" t="s">
+      <c r="P54" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Q51" s="2" t="s">
+      <c r="Q54" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="S51" s="2" t="s">
+      <c r="S54" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="T51" s="2" t="s">
+      <c r="T54" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="V51" s="2" t="s">
+      <c r="V54" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="W51" s="2" t="s">
+      <c r="W54" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Y51" s="2" t="s">
+      <c r="Y54" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Z51" s="2" t="s">
+      <c r="Z54" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AB51" s="2" t="s">
+      <c r="AB54" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AC51" s="2" t="s">
+      <c r="AC54" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AE51" s="2" t="s">
+      <c r="AE54" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AF51" s="2" t="s">
+      <c r="AF54" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AH51" s="2" t="s">
+      <c r="AH54" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AI51" s="2" t="s">
+      <c r="AI54" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AK51" s="2" t="s">
+      <c r="AK54" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AL51" s="2" t="s">
+      <c r="AL54" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AN51" s="2" t="s">
+      <c r="AN54" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AO51" s="2" t="s">
+      <c r="AO54" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AQ51" s="2" t="s">
+      <c r="AQ54" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AR51" s="2" t="s">
+      <c r="AR54" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AT51" s="2" t="s">
+      <c r="AT54" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AU51" s="2" t="s">
+      <c r="AU54" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AW51" s="2" t="s">
+      <c r="AW54" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AX51" s="2" t="s">
+      <c r="AX54" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AZ51" s="2" t="s">
+      <c r="AZ54" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="BA51" s="2" t="s">
+      <c r="BA54" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="BC51" s="2" t="s">
+      <c r="BC54" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="BD51" s="2" t="s">
+      <c r="BD54" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="BF51" s="2" t="s">
+      <c r="BF54" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="BG51" s="2" t="s">
+      <c r="BG54" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="BI51" s="2" t="s">
+      <c r="BI54" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="BJ51" s="2" t="s">
+      <c r="BJ54" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="BL51" s="2" t="s">
+      <c r="BL54" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="BM51" s="2" t="s">
+      <c r="BM54" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="BO51" s="2" t="s">
+      <c r="BO54" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="BP51" s="2" t="s">
+      <c r="BP54" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="BR51" s="2" t="s">
+      <c r="BR54" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="BS51" s="31" t="s">
+      <c r="BS54" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="52" s="2" customFormat="1" spans="1:71">
-      <c r="A52" s="16">
+    <row r="55" s="2" customFormat="1" spans="1:71">
+      <c r="A55" s="6">
         <v>26000</v>
       </c>
-      <c r="D52" s="17">
+      <c r="D55" s="2">
         <v>7500</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G55" s="2">
         <v>10000</v>
       </c>
-      <c r="J52" s="2">
+      <c r="J55" s="2">
         <v>15000</v>
       </c>
-      <c r="M52" s="17">
+      <c r="M55" s="2">
         <v>2000</v>
       </c>
-      <c r="P52" s="2">
+      <c r="P55" s="2">
         <v>30000</v>
       </c>
-      <c r="T52" s="2">
+      <c r="T55" s="2">
         <v>9000</v>
       </c>
-      <c r="V52" s="2">
+      <c r="V55" s="2">
         <v>70000</v>
       </c>
-      <c r="Z52" s="2">
+      <c r="Z55" s="2">
         <v>16000</v>
       </c>
-      <c r="AC52" s="2">
+      <c r="AC55" s="2">
         <v>36000</v>
       </c>
-      <c r="AF52" s="17">
+      <c r="AF55" s="2">
         <v>400</v>
       </c>
-      <c r="AI52" s="2">
+      <c r="AI55" s="2">
         <v>11000</v>
       </c>
-      <c r="AL52" s="2">
+      <c r="AL55" s="2">
         <v>63600</v>
       </c>
-      <c r="AN52" s="2">
+      <c r="AN55" s="2">
         <v>40000</v>
       </c>
-      <c r="AR52" s="2">
+      <c r="AR55" s="2">
         <v>102000</v>
       </c>
-      <c r="AU52" s="2">
+      <c r="AU55" s="2">
         <v>38000</v>
       </c>
-      <c r="AW52" s="17">
+      <c r="AW55" s="2">
         <v>6000</v>
       </c>
-      <c r="AZ52" s="17">
+      <c r="AZ55" s="2">
         <v>12000</v>
       </c>
-      <c r="BC52" s="2">
+      <c r="BC55" s="2">
         <v>48000</v>
       </c>
-      <c r="BF52" s="17">
+      <c r="BF55" s="2">
         <v>3000</v>
       </c>
-      <c r="BI52" s="2">
+      <c r="BI55" s="2">
         <v>22000</v>
       </c>
-      <c r="BL52" s="17">
+      <c r="BL55" s="2">
         <v>7400</v>
       </c>
-      <c r="BO52" s="2">
+      <c r="BO55" s="2">
         <v>7000</v>
       </c>
-      <c r="BR52" s="2">
+      <c r="BR55" s="2">
         <v>5600</v>
       </c>
-      <c r="BS52" s="31"/>
-    </row>
-    <row r="53" s="3" customFormat="1" ht="15" spans="1:71">
-      <c r="A53" s="18"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19">
+      <c r="BS55" s="7"/>
+    </row>
+    <row r="56" s="2" customFormat="1" ht="15.75" spans="1:71">
+      <c r="A56" s="8"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9">
         <v>7400</v>
       </c>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19">
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9">
         <v>3000</v>
       </c>
-      <c r="L53" s="19"/>
-      <c r="M53" s="19"/>
-      <c r="N53" s="19">
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9">
         <v>2000</v>
       </c>
-      <c r="O53" s="19"/>
-      <c r="P53" s="19"/>
-      <c r="Q53" s="19"/>
-      <c r="R53" s="19"/>
-      <c r="S53" s="19"/>
-      <c r="T53" s="19">
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="9"/>
+      <c r="T56" s="9">
         <v>6000</v>
       </c>
-      <c r="U53" s="19"/>
-      <c r="V53" s="19"/>
-      <c r="W53" s="19"/>
-      <c r="X53" s="19"/>
-      <c r="Y53" s="19"/>
-      <c r="Z53" s="19">
+      <c r="U56" s="9"/>
+      <c r="V56" s="9"/>
+      <c r="W56" s="9"/>
+      <c r="X56" s="9"/>
+      <c r="Y56" s="9"/>
+      <c r="Z56" s="9">
         <v>12000</v>
       </c>
-      <c r="AA53" s="19"/>
-      <c r="AB53" s="19"/>
-      <c r="AC53" s="19"/>
-      <c r="AD53" s="19"/>
-      <c r="AE53" s="19"/>
-      <c r="AF53" s="19"/>
-      <c r="AG53" s="19"/>
-      <c r="AH53" s="19">
+      <c r="AA56" s="9"/>
+      <c r="AB56" s="9"/>
+      <c r="AC56" s="9"/>
+      <c r="AD56" s="9"/>
+      <c r="AE56" s="9"/>
+      <c r="AF56" s="9"/>
+      <c r="AG56" s="9"/>
+      <c r="AH56" s="9">
         <v>4400</v>
       </c>
-      <c r="AI53" s="19"/>
-      <c r="AJ53" s="19"/>
-      <c r="AK53" s="19"/>
-      <c r="AL53" s="19"/>
-      <c r="AM53" s="19"/>
-      <c r="AN53" s="19"/>
-      <c r="AO53" s="19"/>
-      <c r="AP53" s="19"/>
-      <c r="AQ53" s="19"/>
-      <c r="AR53" s="19">
+      <c r="AI56" s="9"/>
+      <c r="AJ56" s="9"/>
+      <c r="AK56" s="9"/>
+      <c r="AL56" s="9"/>
+      <c r="AM56" s="9"/>
+      <c r="AN56" s="9"/>
+      <c r="AO56" s="9"/>
+      <c r="AP56" s="9"/>
+      <c r="AQ56" s="9"/>
+      <c r="AR56" s="9">
         <v>7500</v>
       </c>
-      <c r="AS53" s="19"/>
-      <c r="AT53" s="19"/>
-      <c r="AU53" s="19">
+      <c r="AS56" s="9"/>
+      <c r="AT56" s="9"/>
+      <c r="AU56" s="9">
         <v>4400</v>
       </c>
-      <c r="AV53" s="19"/>
-      <c r="AW53" s="19"/>
-      <c r="AX53" s="19"/>
-      <c r="AY53" s="19"/>
-      <c r="AZ53" s="19"/>
-      <c r="BA53" s="19"/>
-      <c r="BB53" s="19"/>
-      <c r="BC53" s="19">
+      <c r="AV56" s="9"/>
+      <c r="AW56" s="9"/>
+      <c r="AX56" s="9"/>
+      <c r="AY56" s="9"/>
+      <c r="AZ56" s="9"/>
+      <c r="BA56" s="9"/>
+      <c r="BB56" s="9"/>
+      <c r="BC56" s="9">
         <v>400</v>
       </c>
-      <c r="BD53" s="19"/>
-      <c r="BE53" s="19"/>
-      <c r="BF53" s="19"/>
-      <c r="BG53" s="19"/>
-      <c r="BH53" s="19"/>
-      <c r="BI53" s="19">
+      <c r="BD56" s="9"/>
+      <c r="BE56" s="9"/>
+      <c r="BF56" s="9"/>
+      <c r="BG56" s="9"/>
+      <c r="BH56" s="9"/>
+      <c r="BI56" s="9">
         <v>2000</v>
       </c>
-      <c r="BJ53" s="19"/>
-      <c r="BK53" s="19"/>
-      <c r="BL53" s="19"/>
-      <c r="BM53" s="19"/>
-      <c r="BN53" s="19"/>
-      <c r="BO53" s="19"/>
-      <c r="BP53" s="19"/>
-      <c r="BQ53" s="19"/>
-      <c r="BR53" s="19"/>
-      <c r="BS53" s="32"/>
-    </row>
-    <row r="54" s="4" customFormat="1" ht="14" customHeight="1" spans="1:70">
-      <c r="A54" s="2">
+      <c r="BJ56" s="9"/>
+      <c r="BK56" s="9"/>
+      <c r="BL56" s="9"/>
+      <c r="BM56" s="9"/>
+      <c r="BN56" s="9"/>
+      <c r="BO56" s="9"/>
+      <c r="BP56" s="9"/>
+      <c r="BQ56" s="9"/>
+      <c r="BR56" s="9"/>
+      <c r="BS56" s="10"/>
+    </row>
+    <row r="57" s="2" customFormat="1" ht="14" customHeight="1" spans="1:70">
+      <c r="A57" s="2">
         <v>26000</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D57" s="2">
         <v>7500</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G57" s="2">
         <v>2600</v>
       </c>
-      <c r="J54" s="4">
+      <c r="J57" s="2">
         <v>12000</v>
       </c>
-      <c r="M54" s="4">
+      <c r="M57" s="2">
         <v>0</v>
       </c>
-      <c r="P54" s="4">
+      <c r="P57" s="2">
         <v>30000</v>
       </c>
-      <c r="T54" s="4">
+      <c r="T57" s="2">
         <v>15000</v>
       </c>
-      <c r="V54" s="4">
+      <c r="V57" s="2">
         <v>70000</v>
       </c>
-      <c r="Z54" s="4">
+      <c r="Z57" s="2">
         <v>28000</v>
       </c>
-      <c r="AC54" s="4">
+      <c r="AC57" s="2">
         <v>36000</v>
       </c>
-      <c r="AF54" s="4">
+      <c r="AF57" s="2">
         <v>400</v>
       </c>
-      <c r="AI54" s="4">
+      <c r="AI57" s="2">
         <v>6600</v>
       </c>
-      <c r="AL54" s="4">
+      <c r="AL57" s="2">
         <v>63600</v>
       </c>
-      <c r="AN54" s="4">
+      <c r="AN57" s="2">
         <v>40000</v>
       </c>
-      <c r="AR54" s="4">
+      <c r="AR57" s="2">
         <v>109500</v>
       </c>
-      <c r="AU54" s="29">
-        <f>SUM(AU52:AU53)</f>
+      <c r="AU57" s="15">
+        <f>SUM(AU55:AU56)</f>
         <v>42400</v>
       </c>
-      <c r="AW54" s="4">
+      <c r="AW57" s="2">
         <v>6000</v>
       </c>
-      <c r="AZ54" s="4">
+      <c r="AZ57" s="2">
         <v>12000</v>
       </c>
-      <c r="BC54" s="4">
+      <c r="BC57" s="2">
         <v>48400</v>
       </c>
-      <c r="BF54" s="4">
+      <c r="BF57" s="2">
         <v>3000</v>
       </c>
-      <c r="BI54" s="4">
+      <c r="BI57" s="2">
         <v>24000</v>
       </c>
-      <c r="BL54" s="4">
+      <c r="BL57" s="2">
         <v>7400</v>
       </c>
-      <c r="BO54" s="4">
+      <c r="BO57" s="2">
         <v>7000</v>
       </c>
-      <c r="BR54" s="4">
+      <c r="BR57" s="2">
         <v>5600</v>
       </c>
     </row>
-    <row r="56" ht="15" spans="8:11">
-      <c r="H56" s="5"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6" t="s">
+    <row r="58" ht="15.75"/>
+    <row r="59" ht="15.75" spans="8:11">
+      <c r="H59" s="3"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K56" s="7" t="s">
+      <c r="K59" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="5"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6" t="s">
+    <row r="60" spans="1:11">
+      <c r="A60" s="3"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E60" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H57" s="20" t="s">
+      <c r="H60" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="I57" s="23"/>
-      <c r="J57" s="2">
+      <c r="I60" s="1"/>
+      <c r="J60" s="2">
         <v>26000</v>
       </c>
-      <c r="K57" s="24"/>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="8" t="s">
+      <c r="K60" s="7"/>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B61" t="s">
         <v>42</v>
       </c>
-      <c r="D58">
+      <c r="D61">
         <v>3000</v>
       </c>
-      <c r="E58" s="9"/>
-      <c r="H58" s="21" t="s">
+      <c r="E61" s="7"/>
+      <c r="H61" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I58" s="25"/>
-      <c r="J58" s="17">
+      <c r="I61" s="1"/>
+      <c r="J61" s="2">
         <v>7500</v>
       </c>
-      <c r="K58" s="24"/>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="8"/>
-      <c r="B59" t="s">
+      <c r="K61" s="7"/>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="6"/>
+      <c r="B62" t="s">
         <v>43</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E62" s="7">
         <v>3000</v>
       </c>
-      <c r="H59" s="21" t="s">
+      <c r="H62" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I59" s="25"/>
-      <c r="J59" s="26">
+      <c r="I62" s="1"/>
+      <c r="J62" s="2">
         <v>2600</v>
       </c>
-      <c r="K59" s="24"/>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="8" t="s">
+      <c r="K62" s="7"/>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B63" t="s">
         <v>39</v>
       </c>
-      <c r="D60">
+      <c r="D63">
         <v>7400</v>
       </c>
-      <c r="E60" s="9"/>
-      <c r="H60" s="21" t="s">
+      <c r="E63" s="7"/>
+      <c r="H63" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I60" s="25"/>
-      <c r="J60" s="26">
+      <c r="I63" s="1"/>
+      <c r="J63" s="2">
         <v>12000</v>
       </c>
-      <c r="K60" s="24"/>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="8"/>
-      <c r="B61" t="s">
+      <c r="K63" s="7"/>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="6"/>
+      <c r="B64" t="s">
         <v>22</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E64" s="7">
         <v>7400</v>
       </c>
-      <c r="H61" s="21" t="s">
+      <c r="H64" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I61" s="25"/>
-      <c r="J61" s="26">
+      <c r="I64" s="1"/>
+      <c r="J64" s="2">
         <v>0</v>
       </c>
-      <c r="K61" s="24"/>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="8" t="s">
+      <c r="K64" s="7"/>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B65" t="s">
         <v>44</v>
       </c>
-      <c r="D62">
+      <c r="D65">
         <v>12000</v>
       </c>
-      <c r="E62" s="9"/>
-      <c r="H62" s="21" t="s">
+      <c r="E65" s="7"/>
+      <c r="H65" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="I62" s="25"/>
-      <c r="J62" s="26">
+      <c r="I65" s="1"/>
+      <c r="J65" s="2">
         <v>30000</v>
       </c>
-      <c r="K62" s="24"/>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="8"/>
-      <c r="B63" t="s">
+      <c r="K65" s="7"/>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="6"/>
+      <c r="B66" t="s">
         <v>45</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E66" s="7">
         <v>12000</v>
       </c>
-      <c r="H63" s="22" t="s">
+      <c r="H66" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I63" s="27"/>
-      <c r="J63" s="17"/>
-      <c r="K63" s="28">
+      <c r="I66" s="28"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="7">
         <v>15000</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="8" t="s">
+    <row r="67" spans="1:11">
+      <c r="A67" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B67" t="s">
         <v>46</v>
       </c>
-      <c r="D64">
+      <c r="D67">
         <v>6000</v>
       </c>
-      <c r="E64" s="9"/>
-      <c r="H64" s="21" t="s">
+      <c r="E67" s="7"/>
+      <c r="H67" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I64" s="25"/>
-      <c r="J64" s="26">
+      <c r="I67" s="1"/>
+      <c r="J67" s="2">
         <v>70000</v>
       </c>
-      <c r="K64" s="24"/>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="8"/>
-      <c r="B65" t="s">
+      <c r="K67" s="7"/>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="6"/>
+      <c r="B68" t="s">
         <v>47</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E68" s="7">
         <v>6000</v>
       </c>
-      <c r="H65" s="33" t="s">
+      <c r="H68" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I65" s="38"/>
-      <c r="J65" s="17"/>
-      <c r="K65" s="28">
+      <c r="I68" s="28"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="7">
         <v>28000</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="8" t="s">
+    <row r="69" spans="1:11">
+      <c r="A69" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B69" t="s">
         <v>30</v>
       </c>
-      <c r="D66">
+      <c r="D69">
         <v>4400</v>
       </c>
-      <c r="E66" s="9"/>
-      <c r="H66" s="21" t="s">
+      <c r="E69" s="7"/>
+      <c r="H69" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="I66" s="25"/>
-      <c r="J66" s="17"/>
-      <c r="K66" s="28">
+      <c r="I69" s="1"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="7">
         <v>36000</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="8"/>
-      <c r="B67" s="34" t="s">
+    <row r="70" spans="1:11">
+      <c r="A70" s="6"/>
+      <c r="B70" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E70" s="7">
         <v>4400</v>
       </c>
-      <c r="H67" s="21" t="s">
+      <c r="H70" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I67" s="25"/>
-      <c r="J67" s="17"/>
-      <c r="K67" s="28">
+      <c r="I70" s="1"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="7">
         <v>400</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="8" t="s">
+    <row r="71" spans="1:11">
+      <c r="A71" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B71" t="s">
         <v>15</v>
       </c>
-      <c r="D68">
+      <c r="D71">
         <v>7500</v>
       </c>
-      <c r="E68" s="9"/>
-      <c r="H68" s="21" t="s">
+      <c r="E71" s="7"/>
+      <c r="H71" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="I68" s="25"/>
-      <c r="J68" s="17"/>
-      <c r="K68" s="28">
+      <c r="I71" s="1"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="7">
         <v>6600</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="8"/>
-      <c r="B69" s="34" t="s">
+    <row r="72" spans="1:11">
+      <c r="A72" s="6"/>
+      <c r="B72" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E72" s="7">
         <v>7500</v>
       </c>
-      <c r="H69" s="21" t="s">
+      <c r="H72" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I69" s="25"/>
-      <c r="J69" s="17"/>
-      <c r="K69" s="28">
+      <c r="I72" s="1"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="7">
         <v>63600</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="8" t="s">
+    <row r="73" spans="1:11">
+      <c r="A73" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B73" t="s">
         <v>9</v>
       </c>
-      <c r="D70">
+      <c r="D73">
         <v>400</v>
       </c>
-      <c r="E70" s="9"/>
-      <c r="H70" s="21" t="s">
+      <c r="E73" s="7"/>
+      <c r="H73" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I70" s="25"/>
-      <c r="J70" s="26">
+      <c r="I73" s="1"/>
+      <c r="J73" s="2">
         <v>40000</v>
       </c>
-      <c r="K70" s="24"/>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="8"/>
-      <c r="B71" t="s">
+      <c r="K73" s="7"/>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="6"/>
+      <c r="B74" t="s">
         <v>10</v>
       </c>
-      <c r="E71" s="9">
+      <c r="E74" s="7">
         <v>400</v>
       </c>
-      <c r="H71" s="21" t="s">
+      <c r="H74" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I71" s="25"/>
-      <c r="J71" s="17"/>
-      <c r="K71" s="28">
+      <c r="I74" s="1"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="7">
         <v>109500</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="8" t="s">
+    <row r="75" spans="1:11">
+      <c r="A75" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B75" t="s">
         <v>38</v>
       </c>
-      <c r="D72">
+      <c r="D75">
         <v>2000</v>
       </c>
-      <c r="E72" s="9"/>
-      <c r="H72" s="21" t="s">
+      <c r="E75" s="7"/>
+      <c r="H75" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I72" s="25"/>
-      <c r="K72" s="24">
+      <c r="I75" s="1"/>
+      <c r="K75" s="7">
         <v>42400</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="8"/>
-      <c r="B73" t="s">
+    <row r="76" spans="1:11">
+      <c r="A76" s="6"/>
+      <c r="B76" t="s">
         <v>24</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E76" s="7">
         <v>2000</v>
       </c>
-      <c r="H73" s="21" t="s">
+      <c r="H76" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I73" s="25"/>
-      <c r="J73" s="26">
+      <c r="I76" s="1"/>
+      <c r="J76" s="2">
         <v>6000</v>
       </c>
-      <c r="K73" s="24"/>
-    </row>
-    <row r="74" ht="15" spans="1:11">
-      <c r="A74" s="10"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="35">
-        <f>SUM(D58:D73)</f>
+      <c r="K76" s="7"/>
+    </row>
+    <row r="77" ht="15.75" spans="1:11">
+      <c r="A77" s="8"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="19">
+        <f>SUM(D61:D76)</f>
         <v>42700</v>
       </c>
-      <c r="E74" s="36">
-        <f>SUM(E58:E73)</f>
+      <c r="E77" s="20">
+        <f>SUM(E61:E76)</f>
         <v>42700</v>
       </c>
-      <c r="H74" s="21" t="s">
+      <c r="H77" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I74" s="25"/>
-      <c r="J74" s="26">
+      <c r="I77" s="1"/>
+      <c r="J77" s="2">
         <v>12000</v>
       </c>
-      <c r="K74" s="24"/>
-    </row>
-    <row r="75" spans="8:11">
-      <c r="H75" s="21" t="s">
+      <c r="K77" s="7"/>
+    </row>
+    <row r="78" spans="8:11">
+      <c r="H78" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I75" s="25"/>
-      <c r="J75" s="26">
+      <c r="I78" s="1"/>
+      <c r="J78" s="2">
         <v>48400</v>
       </c>
-      <c r="K75" s="24"/>
-    </row>
-    <row r="76" spans="8:11">
-      <c r="H76" s="21" t="s">
+      <c r="K78" s="7"/>
+    </row>
+    <row r="79" spans="8:11">
+      <c r="H79" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I76" s="25"/>
-      <c r="J76" s="26">
+      <c r="I79" s="1"/>
+      <c r="J79" s="2">
         <v>3000</v>
       </c>
-      <c r="K76" s="24"/>
-    </row>
-    <row r="77" spans="8:11">
-      <c r="H77" s="21" t="s">
+      <c r="K79" s="7"/>
+    </row>
+    <row r="80" spans="8:11">
+      <c r="H80" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I77" s="25"/>
-      <c r="J77" s="26">
+      <c r="I80" s="1"/>
+      <c r="J80" s="2">
         <v>24000</v>
       </c>
-      <c r="K77" s="24"/>
-    </row>
-    <row r="78" spans="8:11">
-      <c r="H78" s="21" t="s">
+      <c r="K80" s="7"/>
+    </row>
+    <row r="81" spans="8:11">
+      <c r="H81" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="I78" s="25"/>
-      <c r="J78" s="26">
+      <c r="I81" s="1"/>
+      <c r="J81" s="2">
         <v>7400</v>
       </c>
-      <c r="K78" s="24"/>
-    </row>
-    <row r="79" spans="8:11">
-      <c r="H79" s="21" t="s">
+      <c r="K81" s="7"/>
+    </row>
+    <row r="82" spans="8:11">
+      <c r="H82" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="I79" s="25"/>
-      <c r="J79" s="26">
+      <c r="I82" s="1"/>
+      <c r="J82" s="2">
         <v>7000</v>
       </c>
-      <c r="K79" s="24"/>
-    </row>
-    <row r="80" spans="8:11">
-      <c r="H80" s="21" t="s">
+      <c r="K82" s="7"/>
+    </row>
+    <row r="83" spans="8:11">
+      <c r="H83" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I80" s="39"/>
-      <c r="J80" s="26">
+      <c r="I83" s="29"/>
+      <c r="J83" s="2">
         <v>5600</v>
       </c>
-      <c r="K80" s="24"/>
-    </row>
-    <row r="81" ht="15" spans="8:11">
-      <c r="H81" s="37" t="s">
+      <c r="K83" s="7"/>
+    </row>
+    <row r="84" ht="15.75" spans="8:11">
+      <c r="H84" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="I81" s="11"/>
-      <c r="J81" s="35">
-        <f>SUM(J57:J80)</f>
+      <c r="I84" s="9"/>
+      <c r="J84" s="19">
+        <f>SUM(J60:J83)</f>
         <v>301500</v>
       </c>
-      <c r="K81" s="36">
-        <f>SUM(K57:K80)</f>
+      <c r="K84" s="20">
+        <f>SUM(K60:K83)</f>
         <v>301500</v>
       </c>
     </row>
-    <row r="82" spans="8:8">
-      <c r="H82" s="1"/>
-    </row>
-    <row r="83" spans="8:8">
-      <c r="H83" s="1"/>
-    </row>
-    <row r="84" spans="8:8">
-      <c r="H84" s="1"/>
-    </row>
     <row r="85" spans="8:8">
       <c r="H85" s="1"/>
     </row>
@@ -2771,68 +2919,304 @@
     <row r="87" spans="8:8">
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="8:8">
+    <row r="88" spans="1:8">
+      <c r="A88" t="s">
+        <v>51</v>
+      </c>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="8:8">
+    <row r="89" spans="8:22">
       <c r="H89" s="1"/>
-    </row>
-    <row r="90" spans="8:8">
+      <c r="L89" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="M89" s="23"/>
+      <c r="N89" s="23"/>
+      <c r="O89" s="23"/>
+      <c r="P89" s="24"/>
+      <c r="S89" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="T89" s="23"/>
+      <c r="U89" s="23"/>
+      <c r="V89" s="24"/>
+    </row>
+    <row r="90" spans="8:22">
       <c r="H90" s="1"/>
-    </row>
-    <row r="91" spans="8:8">
+      <c r="L90" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M90" s="31"/>
+      <c r="N90" s="32"/>
+      <c r="P90" s="26">
+        <v>168160</v>
+      </c>
+      <c r="S90" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="V90" s="26"/>
+    </row>
+    <row r="91" spans="8:22">
       <c r="H91" s="1"/>
-    </row>
-    <row r="92" spans="8:8">
+      <c r="L91" s="25"/>
+      <c r="N91" s="33"/>
+      <c r="P91" s="26"/>
+      <c r="S91" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="V91" s="26">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="92" spans="8:22">
       <c r="H92" s="1"/>
-    </row>
-    <row r="93" spans="8:8">
+      <c r="L92" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="N92" s="33"/>
+      <c r="O92">
+        <v>6000</v>
+      </c>
+      <c r="P92" s="26"/>
+      <c r="S92" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="V92" s="26">
+        <v>22460</v>
+      </c>
+    </row>
+    <row r="93" spans="8:22">
       <c r="H93" s="1"/>
-    </row>
-    <row r="94" spans="8:8">
+      <c r="L93" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="N93" s="33"/>
+      <c r="O93">
+        <v>77600</v>
+      </c>
+      <c r="P93" s="26"/>
+      <c r="S93" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="V93" s="26">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="94" spans="8:22">
       <c r="H94" s="1"/>
-    </row>
-    <row r="95" spans="8:8">
+      <c r="L94" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="N94" s="33"/>
+      <c r="O94">
+        <v>2200</v>
+      </c>
+      <c r="P94" s="26"/>
+      <c r="S94" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="V94" s="26">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="95" spans="8:22">
       <c r="H95" s="1"/>
-    </row>
-    <row r="96" spans="8:8">
+      <c r="L95" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="N95" s="33"/>
+      <c r="O95">
+        <v>2440</v>
+      </c>
+      <c r="P95" s="26"/>
+      <c r="S95" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="U95">
+        <v>92000</v>
+      </c>
+      <c r="V95" s="26"/>
+    </row>
+    <row r="96" spans="8:22">
       <c r="H96" s="1"/>
-    </row>
-    <row r="97" spans="8:8">
+      <c r="L96" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="N96" s="33"/>
+      <c r="O96">
+        <v>13200</v>
+      </c>
+      <c r="P96" s="26"/>
+      <c r="S96" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="U96">
+        <v>18000</v>
+      </c>
+      <c r="V96" s="26">
+        <v>74000</v>
+      </c>
+    </row>
+    <row r="97" spans="8:22">
       <c r="H97" s="1"/>
-    </row>
-    <row r="98" spans="8:8">
+      <c r="L97" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="M97" s="29"/>
+      <c r="N97" s="35"/>
+      <c r="O97">
+        <v>15000</v>
+      </c>
+      <c r="P97" s="26"/>
+      <c r="S97" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="V97" s="36">
+        <f>SUM(V91:V96)</f>
+        <v>131340</v>
+      </c>
+    </row>
+    <row r="98" spans="8:22">
       <c r="H98" s="1"/>
-    </row>
-    <row r="99" spans="8:8">
+      <c r="L98" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M98" s="29"/>
+      <c r="N98" s="35"/>
+      <c r="O98">
+        <v>14700</v>
+      </c>
+      <c r="P98" s="26"/>
+      <c r="S98" s="25"/>
+      <c r="V98" s="26"/>
+    </row>
+    <row r="99" spans="8:22">
       <c r="H99" s="1"/>
-    </row>
-    <row r="100" spans="8:8">
+      <c r="L99" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="N99" s="33"/>
+      <c r="P99" s="36">
+        <f>SUM(O92:O98)</f>
+        <v>131140</v>
+      </c>
+      <c r="S99" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="V99" s="26"/>
+    </row>
+    <row r="100" ht="15.75" spans="8:22">
       <c r="H100" s="1"/>
-    </row>
-    <row r="101" spans="8:8">
+      <c r="L100" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="M100" s="38"/>
+      <c r="N100" s="38"/>
+      <c r="O100" s="39"/>
+      <c r="P100" s="40">
+        <f>P90-P99</f>
+        <v>37020</v>
+      </c>
+      <c r="S100" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="V100" s="26">
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="101" spans="8:22">
       <c r="H101" s="1"/>
-    </row>
-    <row r="102" spans="8:8">
+      <c r="S101" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="V101" s="26">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="102" spans="8:22">
       <c r="H102" s="1"/>
-    </row>
-    <row r="103" spans="8:8">
+      <c r="S102" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="V102" s="26">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="103" ht="15.75" spans="8:22">
       <c r="H103" s="1"/>
-    </row>
-    <row r="104" spans="8:8">
+      <c r="S103" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="V103" s="26">
+        <v>14300</v>
+      </c>
+    </row>
+    <row r="104" spans="8:22">
       <c r="H104" s="1"/>
-    </row>
-    <row r="105" spans="8:8">
+      <c r="M104" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="N104" s="23"/>
+      <c r="O104" s="24"/>
+      <c r="S104" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="V104" s="26">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="105" spans="8:22">
       <c r="H105" s="1"/>
-    </row>
-    <row r="106" spans="8:8">
+      <c r="M105" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="O105" s="26">
+        <v>28420</v>
+      </c>
+      <c r="S105" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="V105" s="26">
+        <v>55440</v>
+      </c>
+    </row>
+    <row r="106" ht="15.75" spans="8:22">
       <c r="H106" s="1"/>
-    </row>
-    <row r="107" spans="8:8">
+      <c r="M106" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="O106" s="26">
+        <v>37020</v>
+      </c>
+      <c r="S106" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="T106" s="39"/>
+      <c r="U106" s="39"/>
+      <c r="V106" s="41">
+        <f>SUM(V100:V105)</f>
+        <v>131340</v>
+      </c>
+    </row>
+    <row r="107" spans="8:15">
       <c r="H107" s="1"/>
-    </row>
-    <row r="108" spans="8:8">
+      <c r="M107" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="O107" s="26">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="108" ht="15.75" spans="8:15">
       <c r="H108" s="1"/>
+      <c r="M108" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="N108" s="39"/>
+      <c r="O108" s="40">
+        <f>O105+O106-O107</f>
+        <v>55440</v>
+      </c>
     </row>
     <row r="109" spans="8:8">
       <c r="H109" s="1"/>
@@ -2852,83 +3236,298 @@
     <row r="114" spans="8:8">
       <c r="H114" s="1"/>
     </row>
-    <row r="115" spans="8:8">
-      <c r="H115" s="1"/>
-    </row>
-    <row r="116" spans="8:8">
-      <c r="H116" s="1"/>
-    </row>
-    <row r="117" spans="8:8">
-      <c r="H117" s="1"/>
-    </row>
-    <row r="118" spans="8:8">
-      <c r="H118" s="1"/>
-    </row>
-    <row r="119" spans="8:8">
-      <c r="H119" s="1"/>
-    </row>
-    <row r="120" spans="8:8">
-      <c r="H120" s="1"/>
-    </row>
-    <row r="121" spans="8:8">
-      <c r="H121" s="1"/>
-    </row>
-    <row r="122" spans="8:8">
-      <c r="H122" s="1"/>
-    </row>
-    <row r="123" spans="8:8">
-      <c r="H123" s="1"/>
-    </row>
-    <row r="124" spans="8:8">
-      <c r="H124" s="1"/>
-    </row>
-    <row r="125" spans="8:8">
-      <c r="H125" s="1"/>
-    </row>
-    <row r="126" spans="8:8">
-      <c r="H126" s="1"/>
-    </row>
-    <row r="127" spans="8:8">
-      <c r="H127" s="1"/>
-    </row>
-    <row r="128" spans="8:8">
-      <c r="H128" s="1"/>
-    </row>
-    <row r="129" spans="8:8">
-      <c r="H129" s="1"/>
-    </row>
-    <row r="130" spans="8:8">
-      <c r="H130" s="1"/>
-    </row>
-    <row r="131" spans="8:8">
-      <c r="H131" s="1"/>
-    </row>
-    <row r="132" spans="8:8">
-      <c r="H132" s="1"/>
-    </row>
-    <row r="133" spans="8:8">
-      <c r="H133" s="1"/>
-    </row>
-    <row r="134" spans="8:8">
-      <c r="H134" s="1"/>
-    </row>
-    <row r="135" spans="8:8">
-      <c r="H135" s="1"/>
-    </row>
-    <row r="136" spans="8:8">
-      <c r="H136" s="1"/>
-    </row>
-    <row r="137" spans="8:8">
-      <c r="H137" s="1"/>
-    </row>
-    <row r="138" spans="8:8">
-      <c r="H138" s="1"/>
-    </row>
-    <row r="139" spans="8:8">
-      <c r="H139" s="1"/>
-    </row>
-    <row r="140" spans="8:8">
-      <c r="H140" s="1"/>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="119" spans="2:15">
+      <c r="B119" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C119" s="23"/>
+      <c r="D119" s="23"/>
+      <c r="E119" s="24"/>
+      <c r="H119" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="I119" s="23"/>
+      <c r="J119" s="24"/>
+      <c r="L119" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="M119" s="23"/>
+      <c r="N119" s="23"/>
+      <c r="O119" s="24"/>
+    </row>
+    <row r="120" spans="2:15">
+      <c r="B120" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E120" s="26">
+        <v>420000</v>
+      </c>
+      <c r="H120" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="J120" s="26">
+        <v>247800</v>
+      </c>
+      <c r="L120" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="O120" s="26"/>
+    </row>
+    <row r="121" spans="2:15">
+      <c r="B121" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E121" s="26">
+        <v>16000</v>
+      </c>
+      <c r="H121" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="J121" s="26">
+        <v>79200</v>
+      </c>
+      <c r="L121" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="O121" s="26">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="122" spans="2:15">
+      <c r="B122" s="25"/>
+      <c r="E122" s="26"/>
+      <c r="H122" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J122" s="26">
+        <v>38000</v>
+      </c>
+      <c r="L122" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="O122" s="26">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="123" ht="15.75" spans="2:15">
+      <c r="B123" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E123" s="26">
+        <v>18000</v>
+      </c>
+      <c r="H123" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="I123" s="39"/>
+      <c r="J123" s="40">
+        <f>J120+J121-J122</f>
+        <v>289000</v>
+      </c>
+      <c r="L123" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="O123" s="26">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="124" spans="2:15">
+      <c r="B124" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E124" s="26">
+        <v>10000</v>
+      </c>
+      <c r="L124" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="O124" s="26">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="125" spans="2:15">
+      <c r="B125" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E125" s="26">
+        <v>180000</v>
+      </c>
+      <c r="L125" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="O125" s="26">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="126" spans="2:15">
+      <c r="B126" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E126" s="26">
+        <v>32000</v>
+      </c>
+      <c r="L126" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="N126">
+        <v>160000</v>
+      </c>
+      <c r="O126" s="26"/>
+    </row>
+    <row r="127" spans="2:15">
+      <c r="B127" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E127" s="26">
+        <v>24000</v>
+      </c>
+      <c r="L127" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="N127">
+        <v>42000</v>
+      </c>
+      <c r="O127" s="26">
+        <v>118000</v>
+      </c>
+    </row>
+    <row r="128" spans="2:15">
+      <c r="B128" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E128" s="26">
+        <v>26000</v>
+      </c>
+      <c r="L128" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="N128">
+        <v>130000</v>
+      </c>
+      <c r="O128" s="26"/>
+    </row>
+    <row r="129" spans="2:15">
+      <c r="B129" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E129" s="26">
+        <v>50000</v>
+      </c>
+      <c r="L129" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="N129">
+        <v>10000</v>
+      </c>
+      <c r="O129" s="26">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="130" spans="2:15">
+      <c r="B130" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E130" s="26">
+        <v>16800</v>
+      </c>
+      <c r="L130" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="O130" s="26">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="131" ht="15.75" spans="2:15">
+      <c r="B131" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C131" s="39"/>
+      <c r="D131" s="39"/>
+      <c r="E131" s="40">
+        <f>SUM(E120:E121)-SUM(E123:E130)</f>
+        <v>79200</v>
+      </c>
+      <c r="L131" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="O131" s="36">
+        <f>SUM(O121:O130)</f>
+        <v>552000</v>
+      </c>
+    </row>
+    <row r="132" spans="12:15">
+      <c r="L132" s="25"/>
+      <c r="O132" s="26"/>
+    </row>
+    <row r="133" spans="12:15">
+      <c r="L133" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="O133" s="26"/>
+    </row>
+    <row r="134" spans="12:15">
+      <c r="L134" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="O134" s="26">
+        <v>88000</v>
+      </c>
+    </row>
+    <row r="135" spans="12:15">
+      <c r="L135" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O135" s="26">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="136" spans="12:15">
+      <c r="L136" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O136" s="26">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="137" spans="12:15">
+      <c r="L137" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="O137" s="26">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="138" spans="12:15">
+      <c r="L138" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="O138" s="26">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="139" spans="12:15">
+      <c r="L139" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="O139" s="26">
+        <v>289000</v>
+      </c>
+    </row>
+    <row r="140" ht="15.75" spans="12:15">
+      <c r="L140" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="M140" s="39"/>
+      <c r="N140" s="39"/>
+      <c r="O140" s="41">
+        <f>SUM(O134:O139)</f>
+        <v>552000</v>
+      </c>
     </row>
     <row r="141" spans="8:8">
       <c r="H141" s="1"/>
@@ -51692,11 +52291,14 @@
     <row r="16394" spans="8:8">
       <c r="H16394" s="1"/>
     </row>
+    <row r="16395" spans="8:8">
+      <c r="H16395" s="1"/>
+    </row>
+    <row r="16396" spans="8:8">
+      <c r="H16396" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H59:I59"/>
+  <mergeCells count="41">
     <mergeCell ref="H60:I60"/>
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="H62:I62"/>
@@ -51718,6 +52320,26 @@
     <mergeCell ref="H78:I78"/>
     <mergeCell ref="H79:I79"/>
     <mergeCell ref="H80:I80"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="L89:P89"/>
+    <mergeCell ref="S89:V89"/>
+    <mergeCell ref="L90:N90"/>
+    <mergeCell ref="L91:N91"/>
+    <mergeCell ref="L92:N92"/>
+    <mergeCell ref="L93:N93"/>
+    <mergeCell ref="L94:N94"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="L96:N96"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="L98:N98"/>
+    <mergeCell ref="L99:N99"/>
+    <mergeCell ref="L100:N100"/>
+    <mergeCell ref="M104:O104"/>
+    <mergeCell ref="B119:E119"/>
+    <mergeCell ref="H119:J119"/>
+    <mergeCell ref="L119:O119"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
